--- a/static/grdo/GRDO_MetaData_Template.xlsx
+++ b/static/grdo/GRDO_MetaData_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joanna\Dropbox (Duke Bio_Ea)\FLBS\Research\Hypoxia\Global Hypoxia\Database Building\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joanna\Dropbox (Duke Bio_Ea)\FLBS\Research\Hypoxia\Global Hypoxia Database\Database Building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D555B5A5-F020-4554-97C8-49032608D7FA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCE4792-4358-4871-AF3F-135BD456B02C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{3F93F5C4-38DA-4095-8EEF-1C92B6248E7D}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Data Filename</t>
   </si>
   <si>
-    <t>Site ID</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -54,15 +51,9 @@
     <t>4) Save the file with your changes, and upload at: https://data.streampulse.org/grdo_filedrop</t>
   </si>
   <si>
-    <t>Watershed Area</t>
-  </si>
-  <si>
     <t>St. Croix River</t>
   </si>
   <si>
-    <t>Clean vs. Raw</t>
-  </si>
-  <si>
     <t>Clean</t>
   </si>
   <si>
@@ -162,16 +153,78 @@
     <t>Is there a dam upstream of the DO sensor location?</t>
   </si>
   <si>
-    <t>Watershed Area (km^2)</t>
-  </si>
-  <si>
-    <t>What is the watershed area draining to the DO sensor location?</t>
-  </si>
-  <si>
     <t>What is the width of the channel at the DO sensor location?</t>
   </si>
   <si>
     <t>What is the channel slope (gradient) in percent?</t>
+  </si>
+  <si>
+    <t>MiniDOT sensor</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>Over what distance in meters what the channel slope determined?</t>
+  </si>
+  <si>
+    <t>SEE GRDO_TimeseriesData_Template.xlsx for instructions on how to format corresponding timeseries data</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t>Altitude where sensor is located in meters above sea level</t>
+  </si>
+  <si>
+    <t>Potential questions to address here:
+How far is the dam or WWTP upstream?
+If the data has not been cleaned, what are potential issues that we need to watch out for?
+What was the DO sensor calibration procedure?</t>
+  </si>
+  <si>
+    <t>How did you measure dissolved oxygen? If you know what sensor you used, please report it here.</t>
+  </si>
+  <si>
+    <t>We would like to know if you removed periods of sensor failure or known burial periods, or in other words, did you already check for and remove data that does not reflect water column concentrations? If yes, write "Clean". If no, write "Raw".</t>
+  </si>
+  <si>
+    <t>Coord_Units</t>
+  </si>
+  <si>
+    <t>NAD83</t>
+  </si>
+  <si>
+    <t>Coordinate units (e.g. NAD83, ETRS89)</t>
+  </si>
+  <si>
+    <t>Watershed Area (sq. km)</t>
+  </si>
+  <si>
+    <r>
+      <t>What is the watershed area in kilometers squared (km</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) draining to the DO sensor location?</t>
+    </r>
   </si>
   <si>
     <r>
@@ -198,20 +251,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> the first six columns: (1) Timeseries Data File Name, (2) Unique Site ID, (3) DO Method, (4) Clean vs. Raw Data (did you remove data failures or sensor burial periods?), (5) Latitude, (6) Longitude </t>
+      <t xml:space="preserve"> the first seven columns: (1) Timeseries Data File Name, (2) Unique Site ID, (3) DO Method, (4) Clean vs. Raw Data (did you remove data failures or sensor burial periods?), (5) Latitude, (6) Longitude, (7) Coordinate Units </t>
     </r>
   </si>
   <si>
-    <t>DO Method</t>
-  </si>
-  <si>
-    <t>MiniDOT sensor</t>
-  </si>
-  <si>
-    <t>sensor</t>
-  </si>
-  <si>
-    <t>Over what distance in meters what the channel slope determined?</t>
+    <t>SiteID</t>
+  </si>
+  <si>
+    <t>DO_Method</t>
+  </si>
+  <si>
+    <t>Clean_vs_Raw</t>
+  </si>
+  <si>
+    <t>SiteID_LongName</t>
   </si>
   <si>
     <r>
@@ -237,40 +290,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (site information). Please copy and paste your metadata into the template file (see next tab) before uploading it. We prefer one metadata file for all sites, and as many separate data files as needed for time series data from corresponding sites. See "GRDO_TimeseriesData_Template.xlsx" for instructions on how to structure your time series data.
-Please contact Joanna Blaszczak (joanna.blaszczak@flbs.umt.edu or +1-406-872-4505) with any questions. Thank you!</t>
+      <t xml:space="preserve"> (site information). Please copy and paste your metadata into the template file (see next tab) before uploading it. We would like one metadata file for all sites. Time series data can be combined or uploaded as separate data files as long as Site ID information is provided which matches a Site ID in the metadata file. See "GRDO_TimeseriesData_Template.xlsx" for instructions on how to structure your time series data.
+Please contact Joanna Blaszczak (joanna.blaszczak@flbs.umt.edu or +1-406-872-4505) with any questions or if you have exceptionally large data sets. Thank you!</t>
     </r>
-  </si>
-  <si>
-    <t>SEE GRDO_TimeseriesData_Template.xlsx for instructions on how to format corresponding timeseries data</t>
-  </si>
-  <si>
-    <t>Altitude</t>
-  </si>
-  <si>
-    <t>Altitude where sensor is located in meters above sea level</t>
-  </si>
-  <si>
-    <t>Potential questions to address here:
-How far is the dam or WWTP upstream?
-If the data has not been cleaned, what are potential issues that we need to watch out for?
-What was the DO sensor calibration procedure?</t>
-  </si>
-  <si>
-    <t>How did you measure dissolved oxygen? If you know what sensor you used, please report it here.</t>
-  </si>
-  <si>
-    <t>We would like to know if you removed periods of sensor failure or known burial periods, or in other words, did you already check for and remove data that does not reflect water column concentrations? If yes, write "Clean". If no, write "Raw".</t>
-  </si>
-  <si>
-    <t>Site ID Long Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +378,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -411,7 +448,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -432,10 +469,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
@@ -445,12 +497,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADC368B-E49F-4623-8E81-F5F4AE945F7A}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,124 +832,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="A1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="118.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="A2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="A11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -913,297 +959,296 @@
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+      <c r="C28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C15:I15"/>
+  <mergeCells count="26">
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A1:I1"/>
@@ -1211,6 +1256,25 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1219,11 +1283,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C101659F-4A4A-4071-9485-A92F128937B4}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1231,78 +1293,82 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>48.186892</v>
@@ -1310,47 +1376,50 @@
       <c r="F2" s="1">
         <v>-114.132673</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1">
         <v>901</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>1E-3</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>100</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>1021050</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>45.17</v>
@@ -1358,59 +1427,64 @@
       <c r="F3" s="1">
         <v>-67.296700000000001</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E9" s="3"/>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
